--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>260.6120536918921</v>
+        <v>323.0137075733565</v>
       </c>
       <c r="AB2" t="n">
-        <v>356.5809092536115</v>
+        <v>441.9616050609057</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.5493277388954</v>
+        <v>399.7814097709006</v>
       </c>
       <c r="AD2" t="n">
-        <v>260612.0536918921</v>
+        <v>323013.7075733565</v>
       </c>
       <c r="AE2" t="n">
-        <v>356580.9092536115</v>
+        <v>441961.6050609057</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.633228684316785e-06</v>
+        <v>2.76105412544034e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.40451388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>322549.3277388954</v>
+        <v>399781.4097709006</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.8601583089768</v>
+        <v>238.9325793318802</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.6703122865994</v>
+        <v>326.9180960031823</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.2694965175778</v>
+        <v>295.7174917531652</v>
       </c>
       <c r="AD3" t="n">
-        <v>186860.1583089769</v>
+        <v>238932.5793318803</v>
       </c>
       <c r="AE3" t="n">
-        <v>255670.3122865994</v>
+        <v>326918.0960031822</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.059841433359358e-06</v>
+        <v>3.482264144600751e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.835069444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>231269.4965175778</v>
+        <v>295717.4917531652</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>172.8539014964182</v>
+        <v>214.511927823292</v>
       </c>
       <c r="AB4" t="n">
-        <v>236.5063338032257</v>
+        <v>293.5046832460404</v>
       </c>
       <c r="AC4" t="n">
-        <v>213.9345012438385</v>
+        <v>265.4930082135349</v>
       </c>
       <c r="AD4" t="n">
-        <v>172853.9014964182</v>
+        <v>214511.927823292</v>
       </c>
       <c r="AE4" t="n">
-        <v>236506.3338032257</v>
+        <v>293504.6832460404</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.223115284623395e-06</v>
+        <v>3.758286691190841e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.114583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>213934.5012438385</v>
+        <v>265493.008213535</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>159.9311246806363</v>
+        <v>211.9182048489681</v>
       </c>
       <c r="AB5" t="n">
-        <v>218.8248204512052</v>
+        <v>289.9558370455904</v>
       </c>
       <c r="AC5" t="n">
-        <v>197.9404867099693</v>
+        <v>262.2828589136179</v>
       </c>
       <c r="AD5" t="n">
-        <v>159931.1246806363</v>
+        <v>211918.2048489681</v>
       </c>
       <c r="AE5" t="n">
-        <v>218824.8204512052</v>
+        <v>289955.8370455904</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.25490641906537e-06</v>
+        <v>3.81203118132032e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>197940.4867099693</v>
+        <v>262282.8589136179</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.065985870389</v>
+        <v>265.5189145982433</v>
       </c>
       <c r="AB2" t="n">
-        <v>294.2627699093941</v>
+        <v>363.2946928211063</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.1787441497196</v>
+        <v>328.6223572255629</v>
       </c>
       <c r="AD2" t="n">
-        <v>215065.985870389</v>
+        <v>265518.9145982433</v>
       </c>
       <c r="AE2" t="n">
-        <v>294262.7699093941</v>
+        <v>363294.6928211063</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.898274257432964e-06</v>
+        <v>3.287414288759056e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>266178.7441497197</v>
+        <v>328622.3572255629</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.4525641803265</v>
+        <v>205.8149250643175</v>
       </c>
       <c r="AB3" t="n">
-        <v>226.3794975633967</v>
+        <v>281.6050603865349</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.7741560416316</v>
+        <v>254.7290686585113</v>
       </c>
       <c r="AD3" t="n">
-        <v>165452.5641803265</v>
+        <v>205814.9250643175</v>
       </c>
       <c r="AE3" t="n">
-        <v>226379.4975633967</v>
+        <v>281605.0603865349</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.288215502529764e-06</v>
+        <v>3.962711030464454e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.157986111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>204774.1560416316</v>
+        <v>254729.0686585113</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.1223569545474</v>
+        <v>200.4898553192758</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.4040317160858</v>
+        <v>274.3190650358755</v>
       </c>
       <c r="AC4" t="n">
-        <v>185.8005592155301</v>
+        <v>248.1384384781578</v>
       </c>
       <c r="AD4" t="n">
-        <v>150122.3569545474</v>
+        <v>200489.8553192758</v>
       </c>
       <c r="AE4" t="n">
-        <v>205404.0317160858</v>
+        <v>274319.0650358755</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.355753161984575e-06</v>
+        <v>4.079672141774753e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.897569444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>185800.5592155301</v>
+        <v>248138.4384781578</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.0564412315368</v>
+        <v>173.5179931909488</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.5266693963521</v>
+        <v>237.4149733573399</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.6293872645506</v>
+        <v>214.7564215141919</v>
       </c>
       <c r="AD2" t="n">
-        <v>137056.4412315368</v>
+        <v>173517.9931909488</v>
       </c>
       <c r="AE2" t="n">
-        <v>187526.6693963521</v>
+        <v>237414.9733573399</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.554931795121665e-06</v>
+        <v>4.83448075142664e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.157986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>169629.3872645506</v>
+        <v>214756.421514192</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.9336757383106</v>
+        <v>198.2462374325801</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.5141138688886</v>
+        <v>271.2492480618646</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.8046966856799</v>
+        <v>245.3616005276303</v>
       </c>
       <c r="AD2" t="n">
-        <v>150933.6757383106</v>
+        <v>198246.2374325801</v>
       </c>
       <c r="AE2" t="n">
-        <v>206514.1138688886</v>
+        <v>271249.2480618646</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.395324327106982e-06</v>
+        <v>4.363760719954976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.340277777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>186804.6966856799</v>
+        <v>245361.6005276303</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.9780233975901</v>
+        <v>183.3758364378801</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.0511305395099</v>
+        <v>250.902909385135</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.2946717652731</v>
+        <v>226.9570878579358</v>
       </c>
       <c r="AD3" t="n">
-        <v>135978.0233975901</v>
+        <v>183375.8364378801</v>
       </c>
       <c r="AE3" t="n">
-        <v>186051.1305395099</v>
+        <v>250902.909385135</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.49879083144918e-06</v>
+        <v>4.552254220551136e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.958333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>168294.6717652731</v>
+        <v>226957.0878579358</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.1842163084</v>
+        <v>175.197466143736</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.4920321922406</v>
+        <v>239.7129023444596</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.3615645585128</v>
+        <v>216.8350393839453</v>
       </c>
       <c r="AD2" t="n">
-        <v>131184.2163084</v>
+        <v>175197.466143736</v>
       </c>
       <c r="AE2" t="n">
-        <v>179492.0321922406</v>
+        <v>239712.9023444596</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.549888581306707e-06</v>
+        <v>4.996960044067743e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.522569444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>162361.5645585128</v>
+        <v>216835.0393839453</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.6820216093628</v>
+        <v>284.5656683488699</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.0516101201219</v>
+        <v>389.3553015861849</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.8424739964806</v>
+        <v>352.1957780663965</v>
       </c>
       <c r="AD2" t="n">
-        <v>223682.0216093628</v>
+        <v>284565.6683488699</v>
       </c>
       <c r="AE2" t="n">
-        <v>306051.610120122</v>
+        <v>389355.3015861849</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.8251073826535e-06</v>
+        <v>3.140062953140327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.38020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>276842.4739964806</v>
+        <v>352195.7780663965</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.6336615189276</v>
+        <v>221.3416017684151</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.4685035159497</v>
+        <v>302.8493444417027</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.1865972155576</v>
+        <v>273.9458280600006</v>
       </c>
       <c r="AD3" t="n">
-        <v>170633.6615189276</v>
+        <v>221341.6017684151</v>
       </c>
       <c r="AE3" t="n">
-        <v>233468.5035159497</v>
+        <v>302849.3444417027</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.226166773413598e-06</v>
+        <v>3.830078097949976e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.331597222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>211186.5972155576</v>
+        <v>273945.8280600006</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.9636202726598</v>
+        <v>203.7568118681678</v>
       </c>
       <c r="AB4" t="n">
-        <v>209.2915735356161</v>
+        <v>278.7890591140183</v>
       </c>
       <c r="AC4" t="n">
-        <v>189.317079500005</v>
+        <v>252.1818225951602</v>
       </c>
       <c r="AD4" t="n">
-        <v>152963.6202726598</v>
+        <v>203756.8118681678</v>
       </c>
       <c r="AE4" t="n">
-        <v>209291.5735356161</v>
+        <v>278789.0591140183</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.324445467796158e-06</v>
+        <v>3.9991647447121e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.932291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>189317.0795000049</v>
+        <v>252181.8225951602</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.0620984974274</v>
+        <v>171.1494759120332</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.2202128651533</v>
+        <v>234.1742635247215</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.4974416724653</v>
+        <v>211.8250004796328</v>
       </c>
       <c r="AD2" t="n">
-        <v>128062.0984974274</v>
+        <v>171149.4759120332</v>
       </c>
       <c r="AE2" t="n">
-        <v>175220.2128651533</v>
+        <v>234174.2635247215</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.515777899881597e-06</v>
+        <v>5.043280272234023e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.878472222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>158497.4416724653</v>
+        <v>211825.0004796328</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.9900380716974</v>
+        <v>230.976045447251</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.0067989234158</v>
+        <v>316.0316153247364</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.2419395174746</v>
+        <v>285.8700015113952</v>
       </c>
       <c r="AD2" t="n">
-        <v>181990.0380716974</v>
+        <v>230976.0454472509</v>
       </c>
       <c r="AE2" t="n">
-        <v>249006.7989234158</v>
+        <v>316031.6153247364</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.12978494006773e-06</v>
+        <v>3.77200738657624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.13888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>225241.9395174746</v>
+        <v>285870.0015113952</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.2820947621661</v>
+        <v>192.2680126291686</v>
       </c>
       <c r="AB3" t="n">
-        <v>196.0448832134044</v>
+        <v>263.0695771451767</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.3346347102943</v>
+        <v>237.9625859229883</v>
       </c>
       <c r="AD3" t="n">
-        <v>143282.0947621661</v>
+        <v>192268.0126291686</v>
       </c>
       <c r="AE3" t="n">
-        <v>196044.8832134044</v>
+        <v>263069.5771451766</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.428399656398365e-06</v>
+        <v>4.30087623833162e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>177334.6347102943</v>
+        <v>237962.5859229883</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.8620305233664</v>
+        <v>257.7898398317478</v>
       </c>
       <c r="AB2" t="n">
-        <v>270.723559218666</v>
+        <v>352.7194317427071</v>
       </c>
       <c r="AC2" t="n">
-        <v>244.8860826898176</v>
+        <v>319.0563842221201</v>
       </c>
       <c r="AD2" t="n">
-        <v>197862.0305233664</v>
+        <v>257789.8398317478</v>
       </c>
       <c r="AE2" t="n">
-        <v>270723.5592186661</v>
+        <v>352719.431742707</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.962765145623719e-06</v>
+        <v>3.422891026876908e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.78125</v>
       </c>
       <c r="AH2" t="n">
-        <v>244886.0826898176</v>
+        <v>319056.3842221201</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.6188004118059</v>
+        <v>199.5444180263619</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.7150434389604</v>
+        <v>273.0254760219617</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.1773270125723</v>
+        <v>246.9683077841679</v>
       </c>
       <c r="AD3" t="n">
-        <v>149618.8004118059</v>
+        <v>199544.4180263618</v>
       </c>
       <c r="AE3" t="n">
-        <v>204715.0434389604</v>
+        <v>273025.4760219617</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.356678345326645e-06</v>
+        <v>4.109841250971628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.975694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>185177.3270125723</v>
+        <v>246968.3077841679</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.2428774969998</v>
+        <v>198.1684951115557</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.8324450054887</v>
+        <v>271.1428775884899</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.4744011313471</v>
+        <v>245.2653819029426</v>
       </c>
       <c r="AD4" t="n">
-        <v>148242.8774969998</v>
+        <v>198168.4951115557</v>
       </c>
       <c r="AE4" t="n">
-        <v>202832.4450054887</v>
+        <v>271142.8775884899</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.373497658927822e-06</v>
+        <v>4.139172665242999e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.914930555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>183474.4011313471</v>
+        <v>245265.3819029426</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>250.4559848595647</v>
+        <v>312.3952854566433</v>
       </c>
       <c r="AB2" t="n">
-        <v>342.6849278229246</v>
+        <v>427.4330114690966</v>
       </c>
       <c r="AC2" t="n">
-        <v>309.9795592729237</v>
+        <v>386.6394047604846</v>
       </c>
       <c r="AD2" t="n">
-        <v>250455.9848595647</v>
+        <v>312395.2854566433</v>
       </c>
       <c r="AE2" t="n">
-        <v>342684.9278229246</v>
+        <v>427433.0114690966</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.700352349691409e-06</v>
+        <v>2.890486301279035e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.01388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>309979.5592729237</v>
+        <v>386639.4047604846</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.4478208024857</v>
+        <v>233.1349474217318</v>
       </c>
       <c r="AB3" t="n">
-        <v>248.264913334743</v>
+        <v>318.9855202502528</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.5708584481415</v>
+        <v>288.5419898966528</v>
       </c>
       <c r="AD3" t="n">
-        <v>181447.8208024857</v>
+        <v>233134.9474217318</v>
       </c>
       <c r="AE3" t="n">
-        <v>248264.913334743</v>
+        <v>318985.5202502527</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.117011494839192e-06</v>
+        <v>3.598779233370947e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.644097222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>224570.8584481415</v>
+        <v>288541.9898966528</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.9787612548469</v>
+        <v>210.3285520587948</v>
       </c>
       <c r="AB4" t="n">
-        <v>231.2041959655887</v>
+        <v>287.7808039675448</v>
       </c>
       <c r="AC4" t="n">
-        <v>209.1383919998267</v>
+        <v>260.3154079398622</v>
       </c>
       <c r="AD4" t="n">
-        <v>168978.7612548469</v>
+        <v>210328.5520587948</v>
       </c>
       <c r="AE4" t="n">
-        <v>231204.1959655887</v>
+        <v>287780.8039675449</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.268626579334778e-06</v>
+        <v>3.856514828514675e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.001736111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>209138.3919998267</v>
+        <v>260315.4079398622</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>157.7945913447374</v>
+        <v>209.3963771094119</v>
       </c>
       <c r="AB5" t="n">
-        <v>215.9015212838313</v>
+        <v>286.5053610771434</v>
       </c>
       <c r="AC5" t="n">
-        <v>195.2961831122525</v>
+        <v>259.161691528825</v>
       </c>
       <c r="AD5" t="n">
-        <v>157794.5913447374</v>
+        <v>209396.3771094119</v>
       </c>
       <c r="AE5" t="n">
-        <v>215901.5212838313</v>
+        <v>286505.3610771435</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.277214336293326e-06</v>
+        <v>3.871113446178775e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.967013888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>195296.1831122526</v>
+        <v>259161.691528825</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.9952558064941</v>
+        <v>206.0359876122634</v>
       </c>
       <c r="AB2" t="n">
-        <v>216.176079253098</v>
+        <v>281.9075279172256</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.5445376542771</v>
+        <v>255.0026691125888</v>
       </c>
       <c r="AD2" t="n">
-        <v>157995.2558064941</v>
+        <v>206035.9876122634</v>
       </c>
       <c r="AE2" t="n">
-        <v>216176.079253098</v>
+        <v>281907.5279172256</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.302118624355827e-06</v>
+        <v>4.151264652932376e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.600694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>195544.5376542771</v>
+        <v>255002.6691125889</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.2397484024927</v>
+        <v>186.1951393536904</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.1457224714812</v>
+        <v>254.7604040134112</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.0939201865451</v>
+        <v>230.4464286129181</v>
       </c>
       <c r="AD3" t="n">
-        <v>138239.7484024927</v>
+        <v>186195.1393536904</v>
       </c>
       <c r="AE3" t="n">
-        <v>189145.7224714812</v>
+        <v>254760.4040134112</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.478004427505864e-06</v>
+        <v>4.468428377618231e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.914930555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>171093.9201865451</v>
+        <v>230446.4286129181</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.638341390879</v>
+        <v>176.6453128973345</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.0593390997582</v>
+        <v>241.6939101472228</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.8249039295978</v>
+        <v>218.6269825823753</v>
       </c>
       <c r="AD2" t="n">
-        <v>139638.341390879</v>
+        <v>176645.3128973345</v>
       </c>
       <c r="AE2" t="n">
-        <v>191059.3390997582</v>
+        <v>241693.9101472228</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.543423096566028e-06</v>
+        <v>4.74521451147001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.045138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>172824.9039295978</v>
+        <v>218626.9825823753</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.0980002015006</v>
+        <v>177.1049717079561</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.688264563166</v>
+        <v>242.3228356106305</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.3938056294806</v>
+        <v>219.195884282258</v>
       </c>
       <c r="AD3" t="n">
-        <v>140098.0002015005</v>
+        <v>177104.9717079561</v>
       </c>
       <c r="AE3" t="n">
-        <v>191688.264563166</v>
+        <v>242322.8356106305</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.54164662983678e-06</v>
+        <v>4.741900192387921e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.053819444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>173393.8056294806</v>
+        <v>219195.884282258</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.014964008472</v>
+        <v>178.6784850403428</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.3651860792519</v>
+        <v>244.4757859705097</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.8650700745546</v>
+        <v>221.1433600814758</v>
       </c>
       <c r="AD2" t="n">
-        <v>134014.964008472</v>
+        <v>178678.4850403428</v>
       </c>
       <c r="AE2" t="n">
-        <v>183365.1860792519</v>
+        <v>244475.7859705098</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.562237350621803e-06</v>
+        <v>4.927277442250616e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.288194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>165865.0700745546</v>
+        <v>221143.3600814758</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.2838922031559</v>
+        <v>175.3795668082401</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.3649013826071</v>
+        <v>239.9620605073484</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.9602511454489</v>
+        <v>217.0604182414637</v>
       </c>
       <c r="AD2" t="n">
-        <v>133283.8922031559</v>
+        <v>175379.5668082401</v>
       </c>
       <c r="AE2" t="n">
-        <v>182364.9013826071</v>
+        <v>239962.0605073484</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.429211387843207e-06</v>
+        <v>5.010489760012045e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>164960.2511454489</v>
+        <v>217060.4182414637</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.6712249653075</v>
+        <v>239.1371034702231</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.5165377012972</v>
+        <v>327.1979349522309</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.7486435769094</v>
+        <v>295.9706232656732</v>
       </c>
       <c r="AD2" t="n">
-        <v>189671.2249653075</v>
+        <v>239137.1034702231</v>
       </c>
       <c r="AE2" t="n">
-        <v>259516.5377012973</v>
+        <v>327197.9349522309</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.045433469288968e-06</v>
+        <v>3.593745917739955e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.45138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>234748.6435769094</v>
+        <v>295970.6232656732</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.1299776660034</v>
+        <v>195.595766662368</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.9414822421591</v>
+        <v>267.6227570235444</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.8593477966569</v>
+        <v>242.0812167041941</v>
       </c>
       <c r="AD3" t="n">
-        <v>146129.9776660034</v>
+        <v>195595.766662368</v>
       </c>
       <c r="AE3" t="n">
-        <v>199941.4822421591</v>
+        <v>267622.7570235443</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.394410027997382e-06</v>
+        <v>4.206883965041616e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.923611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>180859.3477966569</v>
+        <v>242081.2167041941</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>145.8923709664366</v>
+        <v>195.3581599628012</v>
       </c>
       <c r="AB4" t="n">
-        <v>199.6163782733441</v>
+        <v>267.2976530547294</v>
       </c>
       <c r="AC4" t="n">
-        <v>180.5652712943393</v>
+        <v>241.7871402018766</v>
       </c>
       <c r="AD4" t="n">
-        <v>145892.3709664366</v>
+        <v>195358.1599628012</v>
       </c>
       <c r="AE4" t="n">
-        <v>199616.3782733441</v>
+        <v>267297.6530547295</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.404528501763108e-06</v>
+        <v>4.224661724296712e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>180565.2712943393</v>
+        <v>241787.1402018766</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.6275155514203</v>
+        <v>294.1749561859165</v>
       </c>
       <c r="AB2" t="n">
-        <v>318.2912295789787</v>
+        <v>402.5031531366919</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.9139613526019</v>
+        <v>364.0888171180487</v>
       </c>
       <c r="AD2" t="n">
-        <v>232627.5155514203</v>
+        <v>294174.9561859166</v>
       </c>
       <c r="AE2" t="n">
-        <v>318291.2295789787</v>
+        <v>402503.1531366919</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.754399005042462e-06</v>
+        <v>2.999826784194786e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.73611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>287913.9613526019</v>
+        <v>364088.8171180487</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.5517747000472</v>
+        <v>227.8413085621243</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.5659270590803</v>
+        <v>311.7425300236771</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.5112140205397</v>
+        <v>281.9902604916987</v>
       </c>
       <c r="AD3" t="n">
-        <v>176551.7747000472</v>
+        <v>227841.3085621243</v>
       </c>
       <c r="AE3" t="n">
-        <v>241565.9270590803</v>
+        <v>311742.5300236772</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.164915703711239e-06</v>
+        <v>3.701764589954095e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.513888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>218511.2140205397</v>
+        <v>281990.2604916987</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.0004052320944</v>
+        <v>206.2045982395999</v>
       </c>
       <c r="AB4" t="n">
-        <v>212.0783925737239</v>
+        <v>282.1382284161231</v>
       </c>
       <c r="AC4" t="n">
-        <v>191.8379284404417</v>
+        <v>255.2113518796619</v>
       </c>
       <c r="AD4" t="n">
-        <v>155000.4052320944</v>
+        <v>206204.5982395999</v>
       </c>
       <c r="AE4" t="n">
-        <v>212078.3925737239</v>
+        <v>282138.2284161231</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.304079536026949e-06</v>
+        <v>3.939719234463115e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.940972222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>191837.9284404417</v>
+        <v>255211.3518796619</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>155.3791833483349</v>
+        <v>206.5833763558404</v>
       </c>
       <c r="AB5" t="n">
-        <v>212.5966535028749</v>
+        <v>282.6564893452743</v>
       </c>
       <c r="AC5" t="n">
-        <v>192.3067272738986</v>
+        <v>255.6801507131187</v>
       </c>
       <c r="AD5" t="n">
-        <v>155379.1833483349</v>
+        <v>206583.3763558404</v>
       </c>
       <c r="AE5" t="n">
-        <v>212596.6535028749</v>
+        <v>282656.4893452743</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.30284589823622e-06</v>
+        <v>3.937609851320519e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.940972222222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>192306.7272738986</v>
+        <v>255680.1507131187</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.7979837216464</v>
+        <v>195.5403031761087</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.8554775978366</v>
+        <v>267.5468694347681</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.6861127183895</v>
+        <v>242.0125717203817</v>
       </c>
       <c r="AD2" t="n">
-        <v>146797.9837216464</v>
+        <v>195540.3031761087</v>
       </c>
       <c r="AE2" t="n">
-        <v>200855.4775978366</v>
+        <v>267546.8694347681</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.196045599036461e-06</v>
+        <v>4.707137196390893e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.04861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>181686.1127183895</v>
+        <v>242012.5717203817</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.9593713991482</v>
+        <v>181.4724368080163</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.9715629874593</v>
+        <v>248.2985940394915</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.1728734673169</v>
+        <v>224.6013247137001</v>
       </c>
       <c r="AD2" t="n">
-        <v>143959.3713991482</v>
+        <v>181472.4368080163</v>
       </c>
       <c r="AE2" t="n">
-        <v>196971.5629874593</v>
+        <v>248298.5940394916</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.495376866171188e-06</v>
+        <v>4.597563525579724e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.088541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>178172.8734673169</v>
+        <v>224601.3247137</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.1787525135836</v>
+        <v>179.9846315344084</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.2210446208987</v>
+        <v>246.2629132268059</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.8301238711735</v>
+        <v>222.7599264206805</v>
       </c>
       <c r="AD3" t="n">
-        <v>133178.7525135836</v>
+        <v>179984.6315344083</v>
       </c>
       <c r="AE3" t="n">
-        <v>182221.0446208986</v>
+        <v>246262.9132268059</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.528507118367962e-06</v>
+        <v>4.658603780123262e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.967013888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>164830.1238711735</v>
+        <v>222759.9264206805</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.8512448158484</v>
+        <v>213.4200660203597</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.5567458805801</v>
+        <v>292.010749757726</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.0299266246836</v>
+        <v>264.141653640596</v>
       </c>
       <c r="AD2" t="n">
-        <v>164851.2448158484</v>
+        <v>213420.0660203597</v>
       </c>
       <c r="AE2" t="n">
-        <v>225556.7458805801</v>
+        <v>292010.749757726</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.214575383163689e-06</v>
+        <v>3.956177306118265e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.861111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>204029.9266246835</v>
+        <v>264141.653640596</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.7006034434365</v>
+        <v>189.1840837933761</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.5127729037611</v>
+        <v>258.8500096587094</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.1396240512542</v>
+        <v>234.145728035228</v>
       </c>
       <c r="AD3" t="n">
-        <v>140700.6034434365</v>
+        <v>189184.0837933761</v>
       </c>
       <c r="AE3" t="n">
-        <v>192512.7729037611</v>
+        <v>258850.0096587094</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.455012839996523e-06</v>
+        <v>4.385701276037937e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.897569444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>174139.6240512542</v>
+        <v>234145.7280352279</v>
       </c>
     </row>
   </sheetData>
